--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1531.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1531.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.85035082783323</v>
+        <v>1.873717665672302</v>
       </c>
       <c r="B1">
-        <v>-1</v>
+        <v>4.774370193481445</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>3.642581939697266</v>
       </c>
       <c r="D1">
-        <v>0.9919224731069841</v>
+        <v>1.212711691856384</v>
       </c>
       <c r="E1">
-        <v>0.6471180222782591</v>
+        <v>0.7983418703079224</v>
       </c>
     </row>
   </sheetData>
